--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,10 @@
     <t>Pth1r</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.49982342548712</v>
+        <v>0.2530216666666666</v>
       </c>
       <c r="H2">
-        <v>1.49982342548712</v>
+        <v>0.759065</v>
       </c>
       <c r="I2">
-        <v>0.838951256655642</v>
+        <v>0.1103010466658442</v>
       </c>
       <c r="J2">
-        <v>0.838951256655642</v>
+        <v>0.1152055408057535</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.869990019349028</v>
+        <v>0.9296573333333334</v>
       </c>
       <c r="N2">
-        <v>0.869990019349028</v>
+        <v>2.788972</v>
       </c>
       <c r="O2">
-        <v>0.1017114534183769</v>
+        <v>0.09664309490542493</v>
       </c>
       <c r="P2">
-        <v>0.1017114534183769</v>
+        <v>0.1096215385492196</v>
       </c>
       <c r="Q2">
-        <v>1.304831410959665</v>
+        <v>0.2352234479088889</v>
       </c>
       <c r="R2">
-        <v>1.304831410959665</v>
+        <v>2.11701103118</v>
       </c>
       <c r="S2">
-        <v>0.08533095166161909</v>
+        <v>0.01065983452109488</v>
       </c>
       <c r="T2">
-        <v>0.08533095166161909</v>
+        <v>0.01262900863252161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.49982342548712</v>
+        <v>0.2530216666666666</v>
       </c>
       <c r="H3">
-        <v>1.49982342548712</v>
+        <v>0.759065</v>
       </c>
       <c r="I3">
-        <v>0.838951256655642</v>
+        <v>0.1103010466658442</v>
       </c>
       <c r="J3">
-        <v>0.838951256655642</v>
+        <v>0.1152055408057535</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.27823189955299</v>
+        <v>4.5077</v>
       </c>
       <c r="N3">
-        <v>4.27823189955299</v>
+        <v>13.5231</v>
       </c>
       <c r="O3">
-        <v>0.5001726167962208</v>
+        <v>0.4686007018770901</v>
       </c>
       <c r="P3">
-        <v>0.5001726167962208</v>
+        <v>0.5315302656157724</v>
       </c>
       <c r="Q3">
-        <v>6.416592422615834</v>
+        <v>1.140545766833333</v>
       </c>
       <c r="R3">
-        <v>6.416592422615834</v>
+        <v>10.2649119015</v>
       </c>
       <c r="S3">
-        <v>0.4196204454059303</v>
+        <v>0.05168714788539225</v>
       </c>
       <c r="T3">
-        <v>0.4196204454059303</v>
+        <v>0.06123523170489088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.49982342548712</v>
+        <v>0.2530216666666666</v>
       </c>
       <c r="H4">
-        <v>1.49982342548712</v>
+        <v>0.759065</v>
       </c>
       <c r="I4">
-        <v>0.838951256655642</v>
+        <v>0.1103010466658442</v>
       </c>
       <c r="J4">
-        <v>0.838951256655642</v>
+        <v>0.1152055408057535</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.40528892092874</v>
+        <v>0.389713</v>
       </c>
       <c r="N4">
-        <v>3.40528892092874</v>
+        <v>1.169139</v>
       </c>
       <c r="O4">
-        <v>0.3981159297854024</v>
+        <v>0.04051285252581725</v>
       </c>
       <c r="P4">
-        <v>0.3981159297854024</v>
+        <v>0.0459534251178915</v>
       </c>
       <c r="Q4">
-        <v>5.107332094160681</v>
+        <v>0.09860583278166665</v>
       </c>
       <c r="R4">
-        <v>5.107332094160681</v>
+        <v>0.8874524950349999</v>
       </c>
       <c r="S4">
-        <v>0.3339998595880926</v>
+        <v>0.004468610037016632</v>
       </c>
       <c r="T4">
-        <v>0.3339998595880926</v>
+        <v>0.005294089192583389</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.287912648079239</v>
+        <v>0.2530216666666666</v>
       </c>
       <c r="H5">
-        <v>0.287912648079239</v>
+        <v>0.759065</v>
       </c>
       <c r="I5">
-        <v>0.1610487433443581</v>
+        <v>0.1103010466658442</v>
       </c>
       <c r="J5">
-        <v>0.1610487433443581</v>
+        <v>0.1152055408057535</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.869990019349028</v>
+        <v>0.3757736666666667</v>
       </c>
       <c r="N5">
-        <v>0.869990019349028</v>
+        <v>1.127321</v>
       </c>
       <c r="O5">
-        <v>0.1017114534183769</v>
+        <v>0.03906378063023885</v>
       </c>
       <c r="P5">
-        <v>0.1017114534183769</v>
+        <v>0.04430975372246291</v>
       </c>
       <c r="Q5">
-        <v>0.250481130273287</v>
+        <v>0.09507887942944444</v>
       </c>
       <c r="R5">
-        <v>0.250481130273287</v>
+        <v>0.855709914865</v>
       </c>
       <c r="S5">
-        <v>0.01638050175675781</v>
+        <v>0.004308775890240276</v>
       </c>
       <c r="T5">
-        <v>0.01638050175675781</v>
+        <v>0.00510472914056609</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.287912648079239</v>
+        <v>0.2530216666666666</v>
       </c>
       <c r="H6">
-        <v>0.287912648079239</v>
+        <v>0.759065</v>
       </c>
       <c r="I6">
-        <v>0.1610487433443581</v>
+        <v>0.1103010466658442</v>
       </c>
       <c r="J6">
-        <v>0.1610487433443581</v>
+        <v>0.1152055408057535</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.27823189955299</v>
+        <v>3.4166465</v>
       </c>
       <c r="N6">
-        <v>4.27823189955299</v>
+        <v>6.833292999999999</v>
       </c>
       <c r="O6">
-        <v>0.5001726167962208</v>
+        <v>0.3551795700614289</v>
       </c>
       <c r="P6">
-        <v>0.5001726167962208</v>
+        <v>0.2685850169946534</v>
       </c>
       <c r="Q6">
-        <v>1.231757075297374</v>
+        <v>0.8644855918408332</v>
       </c>
       <c r="R6">
-        <v>1.231757075297374</v>
+        <v>5.186913551045</v>
       </c>
       <c r="S6">
-        <v>0.08055217139029053</v>
+        <v>0.03917667833210015</v>
       </c>
       <c r="T6">
-        <v>0.08055217139029053</v>
+        <v>0.03094248213519155</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.747929333333333</v>
+      </c>
+      <c r="H7">
+        <v>5.243788</v>
+      </c>
+      <c r="I7">
+        <v>0.7619838945199605</v>
+      </c>
+      <c r="J7">
+        <v>0.7958652189347694</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9296573333333334</v>
+      </c>
+      <c r="N7">
+        <v>2.788972</v>
+      </c>
+      <c r="O7">
+        <v>0.09664309490542493</v>
+      </c>
+      <c r="P7">
+        <v>0.1096215385492196</v>
+      </c>
+      <c r="Q7">
+        <v>1.624975322881778</v>
+      </c>
+      <c r="R7">
+        <v>14.624777905936</v>
+      </c>
+      <c r="S7">
+        <v>0.07364048183449784</v>
+      </c>
+      <c r="T7">
+        <v>0.08724396977744095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.747929333333333</v>
+      </c>
+      <c r="H8">
+        <v>5.243788</v>
+      </c>
+      <c r="I8">
+        <v>0.7619838945199605</v>
+      </c>
+      <c r="J8">
+        <v>0.7958652189347694</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.5077</v>
+      </c>
+      <c r="N8">
+        <v>13.5231</v>
+      </c>
+      <c r="O8">
+        <v>0.4686007018770901</v>
+      </c>
+      <c r="P8">
+        <v>0.5315302656157724</v>
+      </c>
+      <c r="Q8">
+        <v>7.879141055866667</v>
+      </c>
+      <c r="R8">
+        <v>70.9122695028</v>
+      </c>
+      <c r="S8">
+        <v>0.3570661877910921</v>
+      </c>
+      <c r="T8">
+        <v>0.4230264512147529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.747929333333333</v>
+      </c>
+      <c r="H9">
+        <v>5.243788</v>
+      </c>
+      <c r="I9">
+        <v>0.7619838945199605</v>
+      </c>
+      <c r="J9">
+        <v>0.7958652189347694</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.389713</v>
+      </c>
+      <c r="N9">
+        <v>1.169139</v>
+      </c>
+      <c r="O9">
+        <v>0.04051285252581725</v>
+      </c>
+      <c r="P9">
+        <v>0.0459534251178915</v>
+      </c>
+      <c r="Q9">
+        <v>0.6811907842813333</v>
+      </c>
+      <c r="R9">
+        <v>6.130717058532</v>
+      </c>
+      <c r="S9">
+        <v>0.03087014114573505</v>
+      </c>
+      <c r="T9">
+        <v>0.03657273274225325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.747929333333333</v>
+      </c>
+      <c r="H10">
+        <v>5.243788</v>
+      </c>
+      <c r="I10">
+        <v>0.7619838945199605</v>
+      </c>
+      <c r="J10">
+        <v>0.7958652189347694</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3757736666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.127321</v>
+      </c>
+      <c r="O10">
+        <v>0.03906378063023885</v>
+      </c>
+      <c r="P10">
+        <v>0.04430975372246291</v>
+      </c>
+      <c r="Q10">
+        <v>0.656825814660889</v>
+      </c>
+      <c r="R10">
+        <v>5.911432331948</v>
+      </c>
+      <c r="S10">
+        <v>0.0297659716993028</v>
+      </c>
+      <c r="T10">
+        <v>0.03526459184727365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.747929333333333</v>
+      </c>
+      <c r="H11">
+        <v>5.243788</v>
+      </c>
+      <c r="I11">
+        <v>0.7619838945199605</v>
+      </c>
+      <c r="J11">
+        <v>0.7958652189347694</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.4166465</v>
+      </c>
+      <c r="N11">
+        <v>6.833292999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.3551795700614289</v>
+      </c>
+      <c r="P11">
+        <v>0.2685850169946534</v>
+      </c>
+      <c r="Q11">
+        <v>5.972056638980667</v>
+      </c>
+      <c r="R11">
+        <v>35.832339833884</v>
+      </c>
+      <c r="S11">
+        <v>0.2706411120493328</v>
+      </c>
+      <c r="T11">
+        <v>0.2137574733530486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.292968</v>
+      </c>
+      <c r="H12">
+        <v>0.585936</v>
+      </c>
+      <c r="I12">
+        <v>0.1277150588141953</v>
+      </c>
+      <c r="J12">
+        <v>0.08892924025947711</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.9296573333333334</v>
+      </c>
+      <c r="N12">
+        <v>2.788972</v>
+      </c>
+      <c r="O12">
+        <v>0.09664309490542493</v>
+      </c>
+      <c r="P12">
+        <v>0.1096215385492196</v>
+      </c>
+      <c r="Q12">
+        <v>0.2723598496320001</v>
+      </c>
+      <c r="R12">
+        <v>1.634159097792</v>
+      </c>
+      <c r="S12">
+        <v>0.0123427785498322</v>
+      </c>
+      <c r="T12">
+        <v>0.009748560139257087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.287912648079239</v>
-      </c>
-      <c r="H7">
-        <v>0.287912648079239</v>
-      </c>
-      <c r="I7">
-        <v>0.1610487433443581</v>
-      </c>
-      <c r="J7">
-        <v>0.1610487433443581</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.40528892092874</v>
-      </c>
-      <c r="N7">
-        <v>3.40528892092874</v>
-      </c>
-      <c r="O7">
-        <v>0.3981159297854024</v>
-      </c>
-      <c r="P7">
-        <v>0.3981159297854024</v>
-      </c>
-      <c r="Q7">
-        <v>0.9804257506994878</v>
-      </c>
-      <c r="R7">
-        <v>0.9804257506994878</v>
-      </c>
-      <c r="S7">
-        <v>0.06411607019730975</v>
-      </c>
-      <c r="T7">
-        <v>0.06411607019730975</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.292968</v>
+      </c>
+      <c r="H13">
+        <v>0.585936</v>
+      </c>
+      <c r="I13">
+        <v>0.1277150588141953</v>
+      </c>
+      <c r="J13">
+        <v>0.08892924025947711</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.5077</v>
+      </c>
+      <c r="N13">
+        <v>13.5231</v>
+      </c>
+      <c r="O13">
+        <v>0.4686007018770901</v>
+      </c>
+      <c r="P13">
+        <v>0.5315302656157724</v>
+      </c>
+      <c r="Q13">
+        <v>1.3206118536</v>
+      </c>
+      <c r="R13">
+        <v>7.9236711216</v>
+      </c>
+      <c r="S13">
+        <v>0.05984736620060574</v>
+      </c>
+      <c r="T13">
+        <v>0.04726858269612871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.292968</v>
+      </c>
+      <c r="H14">
+        <v>0.585936</v>
+      </c>
+      <c r="I14">
+        <v>0.1277150588141953</v>
+      </c>
+      <c r="J14">
+        <v>0.08892924025947711</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.389713</v>
+      </c>
+      <c r="N14">
+        <v>1.169139</v>
+      </c>
+      <c r="O14">
+        <v>0.04051285252581725</v>
+      </c>
+      <c r="P14">
+        <v>0.0459534251178915</v>
+      </c>
+      <c r="Q14">
+        <v>0.114173438184</v>
+      </c>
+      <c r="R14">
+        <v>0.685040629104</v>
+      </c>
+      <c r="S14">
+        <v>0.005174101343065569</v>
+      </c>
+      <c r="T14">
+        <v>0.004086603183054864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.292968</v>
+      </c>
+      <c r="H15">
+        <v>0.585936</v>
+      </c>
+      <c r="I15">
+        <v>0.1277150588141953</v>
+      </c>
+      <c r="J15">
+        <v>0.08892924025947711</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3757736666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.127321</v>
+      </c>
+      <c r="O15">
+        <v>0.03906378063023885</v>
+      </c>
+      <c r="P15">
+        <v>0.04430975372246291</v>
+      </c>
+      <c r="Q15">
+        <v>0.110089659576</v>
+      </c>
+      <c r="R15">
+        <v>0.660537957456</v>
+      </c>
+      <c r="S15">
+        <v>0.004989033040695777</v>
+      </c>
+      <c r="T15">
+        <v>0.003940432734623164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.292968</v>
+      </c>
+      <c r="H16">
+        <v>0.585936</v>
+      </c>
+      <c r="I16">
+        <v>0.1277150588141953</v>
+      </c>
+      <c r="J16">
+        <v>0.08892924025947711</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.4166465</v>
+      </c>
+      <c r="N16">
+        <v>6.833292999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.3551795700614289</v>
+      </c>
+      <c r="P16">
+        <v>0.2685850169946534</v>
+      </c>
+      <c r="Q16">
+        <v>1.000968091812</v>
+      </c>
+      <c r="R16">
+        <v>4.003872367247999</v>
+      </c>
+      <c r="S16">
+        <v>0.04536177967999598</v>
+      </c>
+      <c r="T16">
+        <v>0.02388506150641328</v>
       </c>
     </row>
   </sheetData>
